--- a/Data/Defense_2017.csv.xlsx
+++ b/Data/Defense_2017.csv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Desktop\Project_3\TouchdownProphet\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kobe/Desktop/TouchdownProphet/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{419D2A78-D35F-4408-A5C1-05C95D097220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA03318-6A29-A84E-9A5C-81B112758D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A05780E-F8F6-41F2-BC41-39CEB37207F2}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{1A05780E-F8F6-41F2-BC41-39CEB37207F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,12 +111,6 @@
     <t>First Downs by Penalty</t>
   </si>
   <si>
-    <t>% of Drives Ending in Offensive Score Allowed</t>
-  </si>
-  <si>
-    <t>% of Drives Ending in Takeaways</t>
-  </si>
-  <si>
     <t>Expected Points Contributed by All Defense</t>
   </si>
   <si>
@@ -223,6 +217,12 @@
   </si>
   <si>
     <t>Avg Tm/G</t>
+  </si>
+  <si>
+    <t>% Drives Ending in Takeaways</t>
+  </si>
+  <si>
+    <t>% Drives Ending in Offensive Score Allowed</t>
   </si>
 </sst>
 </file>
@@ -577,12 +577,12 @@
   <dimension ref="A1:AB36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AB36"/>
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -659,21 +659,21 @@
         <v>24</v>
       </c>
       <c r="Z1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>16</v>
@@ -754,12 +754,12 @@
         <v>145.07</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>16</v>
@@ -840,12 +840,12 @@
         <v>252.15</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>16</v>
@@ -926,12 +926,12 @@
         <v>120.25</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>16</v>
@@ -1012,12 +1012,12 @@
         <v>162.09</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>16</v>
@@ -1098,12 +1098,12 @@
         <v>12.09</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>16</v>
@@ -1184,12 +1184,12 @@
         <v>181.55</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>16</v>
@@ -1270,12 +1270,12 @@
         <v>31.72</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9">
         <v>16</v>
@@ -1356,12 +1356,12 @@
         <v>127.47</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10">
         <v>16</v>
@@ -1442,12 +1442,12 @@
         <v>129.87</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>16</v>
@@ -1528,12 +1528,12 @@
         <v>64.3</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12">
         <v>16</v>
@@ -1614,12 +1614,12 @@
         <v>102.03</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13">
         <v>16</v>
@@ -1700,12 +1700,12 @@
         <v>100.44</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14">
         <v>16</v>
@@ -1786,12 +1786,12 @@
         <v>29.89</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15">
         <v>16</v>
@@ -1872,12 +1872,12 @@
         <v>125.66</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16">
         <v>16</v>
@@ -1958,12 +1958,12 @@
         <v>37.659999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -2044,12 +2044,12 @@
         <v>159.55000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18">
         <v>16</v>
@@ -2130,12 +2130,12 @@
         <v>77.510000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19">
         <v>16</v>
@@ -2216,12 +2216,12 @@
         <v>86.45</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C20">
         <v>16</v>
@@ -2302,12 +2302,12 @@
         <v>143.08000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C21">
         <v>16</v>
@@ -2388,12 +2388,12 @@
         <v>11.52</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C22">
         <v>16</v>
@@ -2474,12 +2474,12 @@
         <v>122.96</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C23">
         <v>16</v>
@@ -2560,12 +2560,12 @@
         <v>41.98</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C24">
         <v>16</v>
@@ -2646,12 +2646,12 @@
         <v>131.19999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C25">
         <v>16</v>
@@ -2732,12 +2732,12 @@
         <v>50.69</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C26">
         <v>16</v>
@@ -2818,12 +2818,12 @@
         <v>25.99</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C27">
         <v>16</v>
@@ -2904,12 +2904,12 @@
         <v>16.38</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C28">
         <v>16</v>
@@ -2990,12 +2990,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C29">
         <v>16</v>
@@ -3076,12 +3076,12 @@
         <v>120.68</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C30">
         <v>16</v>
@@ -3162,12 +3162,12 @@
         <v>61.09</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C31">
         <v>16</v>
@@ -3248,12 +3248,12 @@
         <v>5.01</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C32">
         <v>16</v>
@@ -3334,12 +3334,12 @@
         <v>13.99</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C33">
         <v>16</v>
@@ -3420,9 +3420,9 @@
         <v>47.22</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D34">
         <v>347.5</v>
@@ -3500,9 +3500,9 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D35">
         <v>11120</v>
@@ -3577,9 +3577,9 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D36">
         <v>21.7</v>

--- a/Data/Defense_2017.csv.xlsx
+++ b/Data/Defense_2017.csv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kobe/Desktop/TouchdownProphet/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Desktop\Project_3\TouchdownProphet\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA03318-6A29-A84E-9A5C-81B112758D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{419D2A78-D35F-4408-A5C1-05C95D097220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{1A05780E-F8F6-41F2-BC41-39CEB37207F2}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A05780E-F8F6-41F2-BC41-39CEB37207F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,6 +111,12 @@
     <t>First Downs by Penalty</t>
   </si>
   <si>
+    <t>% of Drives Ending in Offensive Score Allowed</t>
+  </si>
+  <si>
+    <t>% of Drives Ending in Takeaways</t>
+  </si>
+  <si>
     <t>Expected Points Contributed by All Defense</t>
   </si>
   <si>
@@ -217,12 +223,6 @@
   </si>
   <si>
     <t>Avg Tm/G</t>
-  </si>
-  <si>
-    <t>% Drives Ending in Takeaways</t>
-  </si>
-  <si>
-    <t>% Drives Ending in Offensive Score Allowed</t>
   </si>
 </sst>
 </file>
@@ -577,12 +577,12 @@
   <dimension ref="A1:AB36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+      <selection activeCell="A2" sqref="A2:AB36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -659,21 +659,21 @@
         <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="AA1" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="AB1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>16</v>
@@ -754,12 +754,12 @@
         <v>145.07</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>16</v>
@@ -840,12 +840,12 @@
         <v>252.15</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>16</v>
@@ -926,12 +926,12 @@
         <v>120.25</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>16</v>
@@ -1012,12 +1012,12 @@
         <v>162.09</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>16</v>
@@ -1098,12 +1098,12 @@
         <v>12.09</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C7">
         <v>16</v>
@@ -1184,12 +1184,12 @@
         <v>181.55</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C8">
         <v>16</v>
@@ -1270,12 +1270,12 @@
         <v>31.72</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>16</v>
@@ -1356,12 +1356,12 @@
         <v>127.47</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C10">
         <v>16</v>
@@ -1442,12 +1442,12 @@
         <v>129.87</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C11">
         <v>16</v>
@@ -1528,12 +1528,12 @@
         <v>64.3</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C12">
         <v>16</v>
@@ -1614,12 +1614,12 @@
         <v>102.03</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C13">
         <v>16</v>
@@ -1700,12 +1700,12 @@
         <v>100.44</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14">
         <v>16</v>
@@ -1786,12 +1786,12 @@
         <v>29.89</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15">
         <v>16</v>
@@ -1872,12 +1872,12 @@
         <v>125.66</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16">
         <v>16</v>
@@ -1958,12 +1958,12 @@
         <v>37.659999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -2044,12 +2044,12 @@
         <v>159.55000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C18">
         <v>16</v>
@@ -2130,12 +2130,12 @@
         <v>77.510000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C19">
         <v>16</v>
@@ -2216,12 +2216,12 @@
         <v>86.45</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C20">
         <v>16</v>
@@ -2302,12 +2302,12 @@
         <v>143.08000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C21">
         <v>16</v>
@@ -2388,12 +2388,12 @@
         <v>11.52</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22">
         <v>16</v>
@@ -2474,12 +2474,12 @@
         <v>122.96</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C23">
         <v>16</v>
@@ -2560,12 +2560,12 @@
         <v>41.98</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C24">
         <v>16</v>
@@ -2646,12 +2646,12 @@
         <v>131.19999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C25">
         <v>16</v>
@@ -2732,12 +2732,12 @@
         <v>50.69</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C26">
         <v>16</v>
@@ -2818,12 +2818,12 @@
         <v>25.99</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C27">
         <v>16</v>
@@ -2904,12 +2904,12 @@
         <v>16.38</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C28">
         <v>16</v>
@@ -2990,12 +2990,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C29">
         <v>16</v>
@@ -3076,12 +3076,12 @@
         <v>120.68</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C30">
         <v>16</v>
@@ -3162,12 +3162,12 @@
         <v>61.09</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C31">
         <v>16</v>
@@ -3248,12 +3248,12 @@
         <v>5.01</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C32">
         <v>16</v>
@@ -3334,12 +3334,12 @@
         <v>13.99</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C33">
         <v>16</v>
@@ -3420,9 +3420,9 @@
         <v>47.22</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D34">
         <v>347.5</v>
@@ -3500,9 +3500,9 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D35">
         <v>11120</v>
@@ -3577,9 +3577,9 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D36">
         <v>21.7</v>
